--- a/bpsk_300_narrow.xlsx
+++ b/bpsk_300_narrow.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3306D9-DC7A-8844-9086-20CD7B916D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57E31ADB-98E9-2643-806A-4B9D45A41477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="15920" yWindow="0" windowWidth="12500" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="bpsk_300_narrow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3056,16 +3069,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3392,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B100"/>
     </sheetView>
   </sheetViews>
